--- a/Bảng tính chưa có tiêu đề.xlsx
+++ b/Bảng tính chưa có tiêu đề.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Chi tiết cài đặt</t>
   </si>
@@ -79,12 +79,18 @@
     <t>not null</t>
   </si>
   <si>
+    <t>Mỗi đơn hàng gồm nhiều sản phẩm</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
     <t>Food:</t>
   </si>
   <si>
+    <t>Một khách có nhiều đơn hàng</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>tên món</t>
   </si>
   <si>
+    <t>Một sản phẩm thuộc nhiều đơn hàng</t>
+  </si>
+  <si>
     <t>đơn giá</t>
   </si>
   <si>
@@ -124,58 +133,61 @@
     <t>float</t>
   </si>
   <si>
+    <t>trạng thái đơn hàng</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>khóa ngoại, not null</t>
+  </si>
+  <si>
+    <t>id khách hàng</t>
+  </si>
+  <si>
+    <t>food_id</t>
+  </si>
+  <si>
+    <t>id món ăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity </t>
+  </si>
+  <si>
+    <t>default 1</t>
+  </si>
+  <si>
+    <t>order_price</t>
+  </si>
+  <si>
+    <t>giá tiền</t>
+  </si>
+  <si>
     <t>ship</t>
   </si>
   <si>
-    <t>order</t>
+    <t>khóa ngoại , not null</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>id đơn hàng</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>default 0</t>
   </si>
   <si>
     <t>tình trạng giao hàng</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>khóa ngoại, not null</t>
-  </si>
-  <si>
-    <t>id khách hàng</t>
-  </si>
-  <si>
-    <t>food_id</t>
-  </si>
-  <si>
-    <t>id món ăn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity </t>
-  </si>
-  <si>
-    <t>default 1</t>
-  </si>
-  <si>
-    <t>order_price</t>
-  </si>
-  <si>
-    <t>giá tiền</t>
-  </si>
-  <si>
-    <t>khóa ngoại , not null</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>id đơn hàng</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>default 0</t>
   </si>
 </sst>
 </file>
@@ -692,10 +704,13 @@
       <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
@@ -707,15 +722,18 @@
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>21</v>
@@ -724,17 +742,20 @@
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -754,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -772,12 +793,12 @@
       </c>
       <c r="D12" s="11"/>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -786,41 +807,36 @@
         <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
-      <c r="H16" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
@@ -850,63 +866,63 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -940,44 +956,44 @@
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
